--- a/medicine/Psychotrope/Bromius_obscurus/Bromius_obscurus.xlsx
+++ b/medicine/Psychotrope/Bromius_obscurus/Bromius_obscurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Eumolpe (Bromius obscurus) est un insecte coléoptère encore appelé Gribouri ou Écrivain, qui s'attaque à la vigne. Il en était, avant 1840 et l'apparition des oïdium, mildiou et phylloxéra, le principal parasite. C'est le seul membre du genre Bromius.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait 5 à 6 mm de long et est de couleur noire mate. L'insecte paraît en avril-mai et dévore les feuilles de vigne en les découpant avec ses mandibules en petites lanières ayant l'aspect de caractères d'écriture, d'où son surnom d'Écrivain. Il marque de même les grains de raisin et les bourgeons.
 En août la femelle pond 15 à 30 œufs au pied du cep, sous l'écorce. Les larves qui en résultent pénètrent dans le sol et dévorent les racines. Elles ressemblent, plus petites, aux "vers blancs" du hanneton. Elles hivernent dans le sol puis au printemps remontent pour recommencer le cycle.
@@ -543,7 +557,9 @@
           <t>Dégâts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Traces d'écriture sur feuilles et sur grappes pouvant provoquer l'éclatement précoce des baies touchées.
 </t>
@@ -574,7 +590,9 @@
           <t>Lutte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Actuellement la lutte contre ce parasite ne pose plus de problème en France où il a pratiquement disparu. Il semble sensible aux insecticides courants utilisés contre d'autres ravageurs de la vigne.
 Jadis, la lutte était plus complexe :
@@ -609,9 +627,11 @@
           <t>Désignations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre les noms: "écrivain" et "gribouri", il fut nommé, selon les régions, "tête-cache" , "diablotin", "coupe-bourgeon" et "bêche" et maintenant "eumolpe". Son nom gascon est « lo barbòt »[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre les noms: "écrivain" et "gribouri", il fut nommé, selon les régions, "tête-cache" , "diablotin", "coupe-bourgeon" et "bêche" et maintenant "eumolpe". Son nom gascon est « lo barbòt ».
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bromius obscurus connaît plusieurs synonymes : Bromius vitis, Adoxus obscurus, Adoxus vitis.
 </t>
